--- a/Proj/TowerGuard/TowerMerch.xlsx
+++ b/Proj/TowerGuard/TowerMerch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="23">
   <si>
     <t>Type</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Red</t>
+  </si>
+  <si>
+    <t>Qty</t>
   </si>
 </sst>
 </file>
@@ -420,20 +423,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -450,10 +457,13 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -469,11 +479,14 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -489,11 +502,14 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -509,11 +525,14 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -529,11 +548,14 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -549,11 +571,14 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -569,11 +594,14 @@
       <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -589,11 +617,14 @@
       <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -609,11 +640,14 @@
       <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -629,11 +663,14 @@
       <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -649,11 +686,14 @@
       <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -669,11 +709,14 @@
       <c r="E12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -689,11 +732,14 @@
       <c r="E13" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -709,11 +755,14 @@
       <c r="E14" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -729,11 +778,14 @@
       <c r="E15" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -749,11 +801,14 @@
       <c r="E16" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>50</v>
+      </c>
+      <c r="G16" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -769,11 +824,14 @@
       <c r="E17" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -789,11 +847,14 @@
       <c r="E18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>50</v>
+      </c>
+      <c r="G18" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -809,11 +870,14 @@
       <c r="E19" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>50</v>
+      </c>
+      <c r="G19" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -829,11 +893,14 @@
       <c r="E20" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>50</v>
+      </c>
+      <c r="G20" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -849,11 +916,14 @@
       <c r="E21" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="G21" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -869,11 +939,14 @@
       <c r="E22" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>50</v>
+      </c>
+      <c r="G22" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -889,11 +962,14 @@
       <c r="E23" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -909,11 +985,14 @@
       <c r="E24" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -929,11 +1008,14 @@
       <c r="E25" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -949,11 +1031,14 @@
       <c r="E26" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>50</v>
+      </c>
+      <c r="G26" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -969,11 +1054,14 @@
       <c r="E27" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="G27" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -989,11 +1077,14 @@
       <c r="E28" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>50</v>
+      </c>
+      <c r="G28" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1009,11 +1100,14 @@
       <c r="E29" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>50</v>
+      </c>
+      <c r="G29" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1029,11 +1123,14 @@
       <c r="E30" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>50</v>
+      </c>
+      <c r="G30" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1049,11 +1146,14 @@
       <c r="E31" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>50</v>
+      </c>
+      <c r="G31" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1069,11 +1169,14 @@
       <c r="E32" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>50</v>
+      </c>
+      <c r="G32" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1089,11 +1192,14 @@
       <c r="E33" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>50</v>
+      </c>
+      <c r="G33" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1109,11 +1215,14 @@
       <c r="E34" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>50</v>
+      </c>
+      <c r="G34" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1129,11 +1238,14 @@
       <c r="E35" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>50</v>
+      </c>
+      <c r="G35" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1149,11 +1261,14 @@
       <c r="E36" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>50</v>
+      </c>
+      <c r="G36" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1169,11 +1284,14 @@
       <c r="E37" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>50</v>
+      </c>
+      <c r="G37" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1189,11 +1307,14 @@
       <c r="E38" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>50</v>
+      </c>
+      <c r="G38" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1209,11 +1330,14 @@
       <c r="E39" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>50</v>
+      </c>
+      <c r="G39" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1229,11 +1353,14 @@
       <c r="E40" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>50</v>
+      </c>
+      <c r="G40" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1249,11 +1376,14 @@
       <c r="E41" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>50</v>
+      </c>
+      <c r="G41" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1269,11 +1399,14 @@
       <c r="E42" t="s">
         <v>19</v>
       </c>
-      <c r="F42" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>50</v>
+      </c>
+      <c r="G42" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1289,11 +1422,14 @@
       <c r="E43" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>50</v>
+      </c>
+      <c r="G43" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1309,11 +1445,14 @@
       <c r="E44" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>50</v>
+      </c>
+      <c r="G44" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1329,11 +1468,14 @@
       <c r="E45" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>50</v>
+      </c>
+      <c r="G45" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1349,7 +1491,10 @@
       <c r="E46" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46">
+        <v>50</v>
+      </c>
+      <c r="G46" s="1">
         <v>10</v>
       </c>
     </row>
